--- a/data_analysis/multi_omics/k_means/cluster_2/cluster2.xlsx
+++ b/data_analysis/multi_omics/k_means/cluster_2/cluster2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>variable_id</t>
   </si>
@@ -23,40 +23,37 @@
     <t>cluster</t>
   </si>
   <si>
-    <t>C.Peptide</t>
-  </si>
-  <si>
-    <t>Leptin</t>
-  </si>
-  <si>
-    <t>M10.93_544.3395m.z</t>
-  </si>
-  <si>
-    <t>M10.53_147.0297m.z</t>
-  </si>
-  <si>
-    <t>M10.78_528.3086m.z</t>
-  </si>
-  <si>
-    <t>M9.84_132.0533n</t>
-  </si>
-  <si>
-    <t>M4.76_175.0634n</t>
-  </si>
-  <si>
-    <t>M10.53_132.0300m.z</t>
-  </si>
-  <si>
-    <t>M8.40_164.0841n</t>
-  </si>
-  <si>
-    <t>M11.99_507.3680n</t>
-  </si>
-  <si>
-    <t>M9.83_213.0490m.z</t>
-  </si>
-  <si>
-    <t>M4.76_163.0632n</t>
+    <t>FFA.22.6.</t>
+  </si>
+  <si>
+    <t>FFA.20.4.</t>
+  </si>
+  <si>
+    <t>FFA.22.4.</t>
+  </si>
+  <si>
+    <t>FFA.22.5.</t>
+  </si>
+  <si>
+    <t>FFA.18.2.</t>
+  </si>
+  <si>
+    <t>FFA.16.1.</t>
+  </si>
+  <si>
+    <t>FFA.18.3.</t>
+  </si>
+  <si>
+    <t>FFA.20.5.</t>
+  </si>
+  <si>
+    <t>M5.58_302.2322m.z</t>
+  </si>
+  <si>
+    <t>M11.28_309.2046m.z</t>
+  </si>
+  <si>
+    <t>M11.28_227.2015m.z</t>
   </si>
 </sst>
 </file>
@@ -123,7 +120,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5107550226579559</v>
+        <v>0.6620086496317943</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -134,7 +131,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5195409351282488</v>
+        <v>0.6409762148011238</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -145,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5959854254186944</v>
+        <v>0.6113218867609925</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -156,7 +153,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6261566758162289</v>
+        <v>0.7032475920346329</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -167,7 +164,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5317754021164207</v>
+        <v>0.6271335103973116</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -178,7 +175,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6043116362824816</v>
+        <v>0.5258848804356022</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -189,7 +186,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6885962462805859</v>
+        <v>0.7171686392090636</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -200,7 +197,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5512100436028105</v>
+        <v>0.590520925648394</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -211,7 +208,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6123138761989949</v>
+        <v>0.6021962970279893</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -222,7 +219,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5721878250734501</v>
+        <v>0.51625985079809</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -233,20 +230,9 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6095488766642425</v>
+        <v>0.5195402018650948</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.674552774585571</v>
-      </c>
-      <c r="C13" t="n">
         <v>2.0</v>
       </c>
     </row>
